--- a/data/Контрольная работа № 2 (Общая экология 2022)(1-100).xlsx
+++ b/data/Контрольная работа № 2 (Общая экология 2022)(1-100).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9264"/>
+    <workbookView windowWidth="22368" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -630,12 +630,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,15 +644,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,27 +670,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,9 +683,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,18 +736,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -734,16 +766,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -756,40 +781,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,49 +797,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,133 +971,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,6 +988,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1024,20 +1050,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,193 +1080,164 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1317,8 +1311,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C101" totalsRowShown="0">
-  <autoFilter ref="A1:C101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C102" totalsRowShown="0">
+  <autoFilter ref="A1:C102"/>
   <tableColumns count="3">
     <tableColumn id="4" name="Почта" dataDxfId="0"/>
     <tableColumn id="5" name="Имя" dataDxfId="1"/>
@@ -1586,10 +1580,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2654,7 +2648,7 @@
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -2708,7 +2702,15 @@
         <v>10</v>
       </c>
     </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A97" r:id="rId2" display="st113681@student.spbu.ru"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
